--- a/tests/pandas/operators/merge/basic/small.xlsx
+++ b/tests/pandas/operators/merge/basic/small.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alee7/ucsf/git/macpie/tests/pandas/operators/merge/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alee7/ucsf/git/macpie/tests/pandas/operators/merge/basic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8F1D78-23DD-C749-9D72-76B862B9DB7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D77294-DC9B-F349-9D98-CA24F503A5C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="45280" windowHeight="24180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="small_anchor" sheetId="1" r:id="rId1"/>
@@ -69,24 +69,6 @@
     <t>Unknown</t>
   </si>
   <si>
-    <t>PIDN_link</t>
-  </si>
-  <si>
-    <t>DCDate_link</t>
-  </si>
-  <si>
-    <t>InstrID_link</t>
-  </si>
-  <si>
-    <t>_merge</t>
-  </si>
-  <si>
-    <t>_diff_days</t>
-  </si>
-  <si>
-    <t>_duplicates</t>
-  </si>
-  <si>
     <t>both</t>
   </si>
   <si>
@@ -169,6 +151,24 @@
   </si>
   <si>
     <t>Col_A</t>
+  </si>
+  <si>
+    <t>_mp_merge</t>
+  </si>
+  <si>
+    <t>_mp_diff_days</t>
+  </si>
+  <si>
+    <t>_mp_duplicates</t>
+  </si>
+  <si>
+    <t>PIDN_x</t>
+  </si>
+  <si>
+    <t>DCDate_x</t>
+  </si>
+  <si>
+    <t>InstrID_x</t>
   </si>
 </sst>
 </file>
@@ -537,11 +537,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -563,7 +570,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1124,21 +1131,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:M25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -1162,13 +1180,13 @@
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -1217,7 +1235,7 @@
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1258,7 +1276,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1411,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1480,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1512,7 +1530,7 @@
         <v>877446</v>
       </c>
       <c r="K17" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1623,7 +1641,7 @@
         <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1664,7 +1682,7 @@
         <v>3</v>
       </c>
       <c r="K24" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1696,21 +1714,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:M25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -1734,13 +1763,13 @@
         <v>11</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -1789,7 +1818,7 @@
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1830,7 +1859,7 @@
         <v>-6</v>
       </c>
       <c r="K4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -2025,7 +2054,7 @@
         <v>-6</v>
       </c>
       <c r="K16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -2057,7 +2086,7 @@
         <v>768903</v>
       </c>
       <c r="K17" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2168,7 +2197,7 @@
         <v>2</v>
       </c>
       <c r="K23" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -2209,7 +2238,7 @@
         <v>-6</v>
       </c>
       <c r="K24" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2250,7 +2279,7 @@
         <v>-6</v>
       </c>
       <c r="K25" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2268,7 +2297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE4D33D6-FBE2-FC43-A39E-5E433337B67A}">
   <dimension ref="A1:AG25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2279,28 +2308,28 @@
     <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="15" max="17" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="8.5" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="28" max="30" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.2">
@@ -2323,16 +2352,16 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>0</v>
@@ -2356,22 +2385,22 @@
         <v>8</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>0</v>
@@ -2395,13 +2424,13 @@
         <v>11</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.2">
@@ -2504,7 +2533,7 @@
         <v>2</v>
       </c>
       <c r="R3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -2543,7 +2572,7 @@
         <v>2</v>
       </c>
       <c r="AE3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -2605,7 +2634,7 @@
         <v>1</v>
       </c>
       <c r="R4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -2644,7 +2673,7 @@
         <v>-6</v>
       </c>
       <c r="AE4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -3082,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -3250,7 +3279,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -3289,7 +3318,7 @@
         <v>-6</v>
       </c>
       <c r="AE16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -3339,7 +3368,7 @@
         <v>877446</v>
       </c>
       <c r="R17" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -3369,7 +3398,7 @@
         <v>768903</v>
       </c>
       <c r="AE17" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -3666,7 +3695,7 @@
         <v>1</v>
       </c>
       <c r="R23" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="S23">
         <v>0</v>
@@ -3705,7 +3734,7 @@
         <v>2</v>
       </c>
       <c r="AE23" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -3767,7 +3796,7 @@
         <v>3</v>
       </c>
       <c r="R24" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="S24">
         <v>0</v>
@@ -3806,7 +3835,7 @@
         <v>-6</v>
       </c>
       <c r="AE24" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -3880,7 +3909,7 @@
         <v>-6</v>
       </c>
       <c r="AE25" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -3912,30 +3941,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -3947,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F2">
         <v>24</v>
@@ -3958,7 +3987,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -3970,7 +3999,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F3">
         <v>8955</v>
@@ -3981,7 +4010,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -3993,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F4">
         <v>9377</v>
@@ -4024,70 +4053,70 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
